--- a/data_year/zb/公共管理、社会保障及其他/调解民间纠纷分类.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/调解民间纠纷分类.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1951114</v>
+        <v>1596880</v>
       </c>
       <c r="C2" t="n">
-        <v>532656</v>
+        <v>590628</v>
       </c>
       <c r="D2" t="n">
-        <v>364585</v>
+        <v>643448</v>
       </c>
       <c r="E2" t="n">
-        <v>5030619</v>
+        <v>8418393</v>
       </c>
       <c r="F2" t="n">
-        <v>740161</v>
+        <v>1791702</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1861409</v>
+        <v>1761612</v>
       </c>
       <c r="C3" t="n">
-        <v>522359</v>
+        <v>614109</v>
       </c>
       <c r="D3" t="n">
-        <v>353218</v>
+        <v>727803</v>
       </c>
       <c r="E3" t="n">
-        <v>4860695</v>
+        <v>8935341</v>
       </c>
       <c r="F3" t="n">
-        <v>729237</v>
+        <v>2043793</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1753027</v>
+        <v>1772695</v>
       </c>
       <c r="C4" t="n">
-        <v>482739</v>
+        <v>626444</v>
       </c>
       <c r="D4" t="n">
-        <v>353371</v>
+        <v>730610</v>
       </c>
       <c r="E4" t="n">
-        <v>4636157</v>
+        <v>9265855</v>
       </c>
       <c r="F4" t="n">
-        <v>694451</v>
+        <v>2213346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1657030</v>
+        <v>1750137</v>
       </c>
       <c r="C5" t="n">
-        <v>454171</v>
+        <v>625880</v>
       </c>
       <c r="D5" t="n">
-        <v>335132</v>
+        <v>745469</v>
       </c>
       <c r="E5" t="n">
-        <v>4492157</v>
+        <v>9439429</v>
       </c>
       <c r="F5" t="n">
-        <v>690547</v>
+        <v>2276627</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140130</v>
+        <v>1842000</v>
       </c>
       <c r="C6" t="n">
-        <v>398759</v>
+        <v>647000</v>
       </c>
       <c r="D6" t="n">
-        <v>340021</v>
+        <v>727000</v>
       </c>
       <c r="E6" t="n">
-        <v>4414233</v>
+        <v>9330000</v>
       </c>
       <c r="F6" t="n">
-        <v>793917</v>
+        <v>2361000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1049969</v>
+        <v>1834000</v>
       </c>
       <c r="C7" t="n">
-        <v>388032</v>
+        <v>653000</v>
       </c>
       <c r="D7" t="n">
-        <v>332514</v>
+        <v>731000</v>
       </c>
       <c r="E7" t="n">
-        <v>4486825</v>
+        <v>9331000</v>
       </c>
       <c r="F7" t="n">
-        <v>836919</v>
+        <v>2375000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1015616</v>
+        <v>1751000</v>
       </c>
       <c r="C8" t="n">
-        <v>386350</v>
+        <v>624000</v>
       </c>
       <c r="D8" t="n">
-        <v>346018</v>
+        <v>750000</v>
       </c>
       <c r="E8" t="n">
-        <v>4628018</v>
+        <v>9019000</v>
       </c>
       <c r="F8" t="n">
-        <v>929423</v>
+        <v>2291000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1005181</v>
+        <v>1645478</v>
       </c>
       <c r="C9" t="n">
-        <v>350105</v>
+        <v>545511</v>
       </c>
       <c r="D9" t="n">
-        <v>406640</v>
+        <v>717686</v>
       </c>
       <c r="E9" t="n">
-        <v>4800238</v>
+        <v>8833135</v>
       </c>
       <c r="F9" t="n">
-        <v>913173</v>
+        <v>2226370</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019226</v>
+        <v>1674000</v>
       </c>
       <c r="C10" t="n">
-        <v>364572</v>
+        <v>546000</v>
       </c>
       <c r="D10" t="n">
-        <v>449054</v>
+        <v>727000</v>
       </c>
       <c r="E10" t="n">
-        <v>4981370</v>
+        <v>9532000</v>
       </c>
       <c r="F10" t="n">
-        <v>993980</v>
+        <v>2495000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1143913</v>
+        <v>1530553</v>
       </c>
       <c r="C11" t="n">
-        <v>364977</v>
+        <v>488276</v>
       </c>
       <c r="D11" t="n">
-        <v>545094</v>
+        <v>739058</v>
       </c>
       <c r="E11" t="n">
-        <v>5797300</v>
+        <v>9314666</v>
       </c>
       <c r="F11" t="n">
-        <v>1241838</v>
+        <v>2312645</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1596880</v>
+        <v>1299280</v>
       </c>
       <c r="C12" t="n">
-        <v>590628</v>
+        <v>362693</v>
       </c>
       <c r="D12" t="n">
-        <v>643448</v>
+        <v>656215</v>
       </c>
       <c r="E12" t="n">
-        <v>8418393</v>
+        <v>8195688</v>
       </c>
       <c r="F12" t="n">
-        <v>1791702</v>
+        <v>2040012</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1761612</v>
+        <v>1218326</v>
       </c>
       <c r="C13" t="n">
-        <v>614109</v>
+        <v>324210</v>
       </c>
       <c r="D13" t="n">
-        <v>727803</v>
+        <v>709456</v>
       </c>
       <c r="E13" t="n">
-        <v>8935341</v>
+        <v>8743661</v>
       </c>
       <c r="F13" t="n">
-        <v>2043793</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1772695</v>
-      </c>
-      <c r="C14" t="n">
-        <v>626444</v>
-      </c>
-      <c r="D14" t="n">
-        <v>730610</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9265855</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2213346</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1750137</v>
-      </c>
-      <c r="C15" t="n">
-        <v>625880</v>
-      </c>
-      <c r="D15" t="n">
-        <v>745469</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9439429</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2276627</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1842000</v>
-      </c>
-      <c r="C16" t="n">
-        <v>647000</v>
-      </c>
-      <c r="D16" t="n">
-        <v>727000</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9330000</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2361000</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1834000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>653000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>731000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9331000</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2375000</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1751000</v>
-      </c>
-      <c r="C18" t="n">
-        <v>624000</v>
-      </c>
-      <c r="D18" t="n">
-        <v>750000</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9019000</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2291000</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1645478</v>
-      </c>
-      <c r="C19" t="n">
-        <v>545511</v>
-      </c>
-      <c r="D19" t="n">
-        <v>717686</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8833135</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2226370</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1674000</v>
-      </c>
-      <c r="C20" t="n">
-        <v>546000</v>
-      </c>
-      <c r="D20" t="n">
-        <v>727000</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9532000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2495000</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1530553</v>
-      </c>
-      <c r="C21" t="n">
-        <v>488276</v>
-      </c>
-      <c r="D21" t="n">
-        <v>739058</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9314666</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2312645</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1299280</v>
-      </c>
-      <c r="C22" t="n">
-        <v>362693</v>
-      </c>
-      <c r="D22" t="n">
-        <v>656215</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8195688</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2040012</v>
+        <v>2104041</v>
       </c>
     </row>
   </sheetData>
